--- a/upload_files/data_engineer_mid__deeoreason_data_engineer_jr_jl.xlsx
+++ b/upload_files/data_engineer_mid__deeoreason_data_engineer_jr_jl.xlsx
@@ -226,10 +226,10 @@
     <t>jupyter : 2</t>
   </si>
   <si>
+    <t>algorithms : 2</t>
+  </si>
+  <si>
     <t>python : 2</t>
-  </si>
-  <si>
-    <t>algorithms : 2</t>
   </si>
   <si>
     <t>42.85</t>
@@ -669,7 +669,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -685,7 +685,7 @@
         <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -693,7 +693,7 @@
         <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:11">

--- a/upload_files/data_engineer_mid__deeoreason_data_engineer_jr_jl.xlsx
+++ b/upload_files/data_engineer_mid__deeoreason_data_engineer_jr_jl.xlsx
@@ -55,7 +55,7 @@
     <t>deeoreason_data_engineer_jr_jl.pdf</t>
   </si>
   <si>
-    <t>41.95</t>
+    <t>76.95</t>
   </si>
   <si>
     <t>data engineer : 3</t>
@@ -220,10 +220,10 @@
     <t>hadoop : 2</t>
   </si>
   <si>
+    <t>jupyter : 2</t>
+  </si>
+  <si>
     <t>docker : 1</t>
-  </si>
-  <si>
-    <t>jupyter : 2</t>
   </si>
   <si>
     <t>algorithms : 2</t>
@@ -669,7 +669,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -677,7 +677,7 @@
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -685,7 +685,7 @@
         <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -693,7 +693,7 @@
         <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:11">
